--- a/line_point.xlsx
+++ b/line_point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dungs\Desktop\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BF3EB9-8309-494C-8AB9-A72E00585A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74F2EA-51F6-4B31-8C80-4D219629313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetdata" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">sheetdata!$A$1:$C$416</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">sheetdata!$A$1:$C$417</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="833">
   <si>
     <t>Column1</t>
   </si>
@@ -1463,12 +1463,6 @@
   </si>
   <si>
     <t>106.323913539</t>
-  </si>
-  <si>
-    <t>20.947697660</t>
-  </si>
-  <si>
-    <t>106.328100370</t>
   </si>
   <si>
     <t>20.946406254</t>
@@ -2634,13 +2628,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2692,8 +2687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}" name="_20240328030104_53111_data" displayName="_20240328030104_53111_data" ref="A1:C416" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C416" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}" name="_20240328030104_53111_data" displayName="_20240328030104_53111_data" ref="A1:C417" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C417" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB2D52AB-7D54-4CAE-A3A7-88E8176BF49F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{AB0EB95C-8314-4DB3-89D6-23FCD0D0275D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
@@ -2966,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E963D76-758D-457C-AEF1-1CF1D438BCF5}">
-  <dimension ref="A1:C416"/>
+  <dimension ref="A1:C417"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:XFD409"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5581,11 +5576,11 @@
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>476</v>
+      <c r="B237" s="5">
+        <v>20.947052599999999</v>
+      </c>
+      <c r="C237" s="5">
+        <v>106.3302065</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -5593,10 +5588,10 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -5604,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -5615,10 +5610,10 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C240" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -5626,10 +5621,10 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C241" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -5637,10 +5632,10 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -5648,10 +5643,10 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C243" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -5659,10 +5654,10 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -5670,10 +5665,10 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C245" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -5681,10 +5676,10 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C246" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -5692,10 +5687,10 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -5703,10 +5698,10 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -5714,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C249" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -5725,10 +5720,10 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C250" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -5736,10 +5731,10 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C251" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -5747,10 +5742,10 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C252" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -5758,10 +5753,10 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C253" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -5769,10 +5764,10 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C254" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -5780,10 +5775,10 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C255" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -5791,10 +5786,10 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C256" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -5802,10 +5797,10 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C257" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -5813,10 +5808,10 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C258" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -5824,10 +5819,10 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -5835,10 +5830,10 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C260" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -5846,10 +5841,10 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C261" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,10 +5852,10 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C262" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -5868,10 +5863,10 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C263" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -5879,10 +5874,10 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C264" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -5890,10 +5885,10 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C265" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -5901,10 +5896,10 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C266" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -5912,10 +5907,10 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C267" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -5923,10 +5918,10 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C268" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -5934,10 +5929,10 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C269" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -5945,10 +5940,10 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C270" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5956,10 +5951,10 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5967,10 +5962,10 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C272" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -5978,10 +5973,10 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C273" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -5989,10 +5984,10 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C274" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -6000,10 +5995,10 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C275" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -6011,10 +6006,10 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C276" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -6022,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C277" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -6033,10 +6028,10 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C278" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -6044,10 +6039,10 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C279" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -6055,10 +6050,10 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C280" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -6066,10 +6061,10 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C281" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -6077,10 +6072,10 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C282" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -6088,10 +6083,10 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C283" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -6099,10 +6094,10 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C284" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -6110,10 +6105,10 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C285" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -6121,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C286" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -6132,10 +6127,10 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C287" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -6143,10 +6138,10 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C288" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -6154,10 +6149,10 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C289" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -6165,10 +6160,10 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C290" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -6176,10 +6171,10 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C291" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -6187,10 +6182,10 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C292" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -6198,10 +6193,10 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C293" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -6209,10 +6204,10 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C294" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -6220,10 +6215,10 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C295" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -6231,10 +6226,10 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C296" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -6242,10 +6237,10 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C297" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -6253,10 +6248,10 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C298" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,10 +6259,10 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C299" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -6275,10 +6270,10 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C300" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -6286,10 +6281,10 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C301" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -6297,10 +6292,10 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C302" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -6308,10 +6303,10 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C303" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -6319,10 +6314,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C304" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -6330,10 +6325,10 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C305" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -6341,10 +6336,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C306" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,10 +6347,10 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C307" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -6363,10 +6358,10 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C308" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -6374,10 +6369,10 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C309" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -6385,10 +6380,10 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C310" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -6396,10 +6391,10 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C311" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -6407,10 +6402,10 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C312" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -6418,10 +6413,10 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C313" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -6429,10 +6424,10 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C314" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -6440,10 +6435,10 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C315" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -6451,10 +6446,10 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C316" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -6462,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C317" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,10 +6468,10 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C318" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -6484,10 +6479,10 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C319" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -6495,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C320" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -6506,10 +6501,10 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C321" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -6517,10 +6512,10 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C322" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -6528,10 +6523,10 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C323" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6539,10 +6534,10 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C324" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -6550,10 +6545,10 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C325" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -6561,10 +6556,10 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C326" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -6572,10 +6567,10 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C327" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6583,10 +6578,10 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C328" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6594,10 +6589,10 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -6605,10 +6600,10 @@
         <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C330" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6616,10 +6611,10 @@
         <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C331" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -6627,10 +6622,10 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C332" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -6638,10 +6633,10 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C333" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6649,10 +6644,10 @@
         <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C334" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -6660,10 +6655,10 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C335" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -6671,10 +6666,10 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C336" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6682,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C337" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6693,10 +6688,10 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C338" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,10 +6699,10 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C339" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6715,10 +6710,10 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C340" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6726,10 +6721,10 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C341" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6737,10 +6732,10 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C342" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6748,10 +6743,10 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C343" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6759,10 +6754,10 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C344" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6770,10 +6765,10 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C345" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6781,10 +6776,10 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C346" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,10 +6787,10 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C347" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6803,10 +6798,10 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C348" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6814,10 +6809,10 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C349" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6825,10 +6820,10 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C350" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6836,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C351" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6847,10 +6842,10 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C352" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6858,10 +6853,10 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C353" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6869,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C354" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6880,10 +6875,10 @@
         <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C355" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6891,10 +6886,10 @@
         <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C356" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6902,10 +6897,10 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C357" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6913,10 +6908,10 @@
         <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C358" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6924,10 +6919,10 @@
         <v>6</v>
       </c>
       <c r="B359" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C359" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6935,10 +6930,10 @@
         <v>6</v>
       </c>
       <c r="B360" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C360" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6946,10 +6941,10 @@
         <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C361" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6957,10 +6952,10 @@
         <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C362" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,10 +6963,10 @@
         <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C363" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6979,10 +6974,10 @@
         <v>6</v>
       </c>
       <c r="B364" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C364" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6990,10 +6985,10 @@
         <v>6</v>
       </c>
       <c r="B365" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C365" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -7001,10 +6996,10 @@
         <v>6</v>
       </c>
       <c r="B366" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C366" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -7012,10 +7007,10 @@
         <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C367" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -7023,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C368" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -7034,10 +7029,10 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C369" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -7045,10 +7040,10 @@
         <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C370" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -7056,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="B371" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C371" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -7067,10 +7062,10 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C372" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -7078,10 +7073,10 @@
         <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C373" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -7089,10 +7084,10 @@
         <v>6</v>
       </c>
       <c r="B374" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C374" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -7100,10 +7095,10 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C375" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -7111,10 +7106,10 @@
         <v>6</v>
       </c>
       <c r="B376" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C376" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -7122,10 +7117,10 @@
         <v>6</v>
       </c>
       <c r="B377" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C377" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -7133,10 +7128,10 @@
         <v>6</v>
       </c>
       <c r="B378" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C378" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -7144,10 +7139,10 @@
         <v>6</v>
       </c>
       <c r="B379" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C379" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -7155,10 +7150,10 @@
         <v>6</v>
       </c>
       <c r="B380" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C380" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -7166,10 +7161,10 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C381" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -7177,10 +7172,10 @@
         <v>6</v>
       </c>
       <c r="B382" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C382" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -7188,10 +7183,10 @@
         <v>6</v>
       </c>
       <c r="B383" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C383" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -7199,10 +7194,10 @@
         <v>6</v>
       </c>
       <c r="B384" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C384" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -7210,10 +7205,10 @@
         <v>6</v>
       </c>
       <c r="B385" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C385" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -7221,10 +7216,10 @@
         <v>6</v>
       </c>
       <c r="B386" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C386" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -7232,10 +7227,10 @@
         <v>6</v>
       </c>
       <c r="B387" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C387" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -7243,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="B388" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C388" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -7254,10 +7249,10 @@
         <v>6</v>
       </c>
       <c r="B389" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C389" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -7265,10 +7260,10 @@
         <v>6</v>
       </c>
       <c r="B390" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C390" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7276,10 +7271,10 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C391" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -7287,10 +7282,10 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C392" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -7298,10 +7293,10 @@
         <v>6</v>
       </c>
       <c r="B393" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C393" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -7309,10 +7304,10 @@
         <v>6</v>
       </c>
       <c r="B394" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C394" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -7320,10 +7315,10 @@
         <v>6</v>
       </c>
       <c r="B395" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C395" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -7331,10 +7326,10 @@
         <v>6</v>
       </c>
       <c r="B396" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C396" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7342,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C397" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -7353,10 +7348,10 @@
         <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C398" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -7364,10 +7359,10 @@
         <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C399" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7375,10 +7370,10 @@
         <v>6</v>
       </c>
       <c r="B400" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C400" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -7386,10 +7381,10 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C401" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -7397,10 +7392,10 @@
         <v>6</v>
       </c>
       <c r="B402" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C402" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -7408,10 +7403,10 @@
         <v>6</v>
       </c>
       <c r="B403" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C403" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -7419,10 +7414,10 @@
         <v>6</v>
       </c>
       <c r="B404" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C404" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -7430,10 +7425,10 @@
         <v>6</v>
       </c>
       <c r="B405" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C405" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7441,10 +7436,10 @@
         <v>6</v>
       </c>
       <c r="B406" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C406" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -7452,10 +7447,10 @@
         <v>6</v>
       </c>
       <c r="B407" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C407" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -7463,10 +7458,10 @@
         <v>6</v>
       </c>
       <c r="B408" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C408" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -7474,10 +7469,10 @@
         <v>6</v>
       </c>
       <c r="B409" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C409" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -7485,10 +7480,10 @@
         <v>6</v>
       </c>
       <c r="B410" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C410" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -7496,10 +7491,10 @@
         <v>6</v>
       </c>
       <c r="B411" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C411" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7507,10 +7502,10 @@
         <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C412" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7518,10 +7513,10 @@
         <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C413" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -7529,10 +7524,10 @@
         <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C414" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -7540,10 +7535,10 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C415" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7551,11 +7546,16 @@
         <v>6</v>
       </c>
       <c r="B416" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C416" t="s">
-        <v>834</v>
-      </c>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="6"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7570,7 +7570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7734,10 +7734,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7745,10 +7745,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7756,10 +7756,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7767,10 +7767,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7778,10 +7778,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/line_point.xlsx
+++ b/line_point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74F2EA-51F6-4B31-8C80-4D219629313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71541C-FB4C-4B75-AD65-FDAA78D50A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,21 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">sheetdata!$A$1:$C$417</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="835">
   <si>
     <t>Column1</t>
   </si>
@@ -2537,6 +2548,12 @@
   </si>
   <si>
     <t>106.687627293</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2636,11 +2653,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2665,11 +2686,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{825432C8-92B4-499A-9953-3D19AF8F85F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="14" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
     <queryTableDeletedFields count="9">
       <deletedField name="Column8"/>
@@ -2687,12 +2709,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}" name="_20240328030104_53111_data" displayName="_20240328030104_53111_data" ref="A1:C417" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C417" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BB2D52AB-7D54-4CAE-A3A7-88E8176BF49F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AB0EB95C-8314-4DB3-89D6-23FCD0D0275D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3B8D37AF-D3B3-49A8-8BBD-130B5493A3CF}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}" name="_20240328030104_53111_data" displayName="_20240328030104_53111_data" ref="A1:D417" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D417" xr:uid="{F734AB74-99BC-42D0-A80B-CF9323965793}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BB2D52AB-7D54-4CAE-A3A7-88E8176BF49F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AB0EB95C-8314-4DB3-89D6-23FCD0D0275D}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3B8D37AF-D3B3-49A8-8BBD-130B5493A3CF}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A05FD79B-EE19-4492-88D8-D5315A13089E}" uniqueName="4" name="Column4" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2961,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E963D76-758D-457C-AEF1-1CF1D438BCF5}">
-  <dimension ref="A1:C417"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,7 +2999,7 @@
     <col min="5" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2986,8 +3009,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2997,8 +3023,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3008,8 +3037,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3019,8 +3051,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3030,8 +3065,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3041,8 +3079,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3052,8 +3093,11 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3063,8 +3107,11 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3074,8 +3121,11 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3085,8 +3135,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3096,8 +3149,11 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3107,8 +3163,11 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3118,8 +3177,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3129,8 +3191,11 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3140,8 +3205,11 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3151,8 +3219,11 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3162,8 +3233,11 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3173,8 +3247,11 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3184,8 +3261,11 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3195,8 +3275,11 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3206,8 +3289,11 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3217,8 +3303,11 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3228,8 +3317,11 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3239,8 +3331,11 @@
       <c r="C24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3250,8 +3345,11 @@
       <c r="C25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3261,8 +3359,11 @@
       <c r="C26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3272,8 +3373,11 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3283,8 +3387,11 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3294,8 +3401,11 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3305,8 +3415,11 @@
       <c r="C30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3316,8 +3429,11 @@
       <c r="C31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3327,8 +3443,11 @@
       <c r="C32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3338,8 +3457,11 @@
       <c r="C33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3349,8 +3471,11 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3360,8 +3485,11 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3371,8 +3499,11 @@
       <c r="C36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3382,8 +3513,11 @@
       <c r="C37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3393,8 +3527,11 @@
       <c r="C38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3404,8 +3541,11 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -3415,8 +3555,11 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -3426,8 +3569,11 @@
       <c r="C41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -3437,8 +3583,11 @@
       <c r="C42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3448,8 +3597,11 @@
       <c r="C43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3459,8 +3611,11 @@
       <c r="C44" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3470,8 +3625,11 @@
       <c r="C45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3481,8 +3639,11 @@
       <c r="C46" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3492,8 +3653,11 @@
       <c r="C47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3503,8 +3667,11 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3514,8 +3681,11 @@
       <c r="C49" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3525,8 +3695,11 @@
       <c r="C50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3536,8 +3709,11 @@
       <c r="C51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3547,8 +3723,11 @@
       <c r="C52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="C53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -3569,8 +3751,11 @@
       <c r="C54" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -3580,8 +3765,11 @@
       <c r="C55" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -3591,8 +3779,11 @@
       <c r="C56" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -3602,8 +3793,11 @@
       <c r="C57" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -3613,8 +3807,11 @@
       <c r="C58" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3624,8 +3821,11 @@
       <c r="C59" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3635,8 +3835,11 @@
       <c r="C60" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3646,8 +3849,11 @@
       <c r="C61" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -3657,8 +3863,11 @@
       <c r="C62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -3668,8 +3877,11 @@
       <c r="C63" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -3679,8 +3891,11 @@
       <c r="C64" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -3690,8 +3905,11 @@
       <c r="C65" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -3701,8 +3919,11 @@
       <c r="C66" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3712,8 +3933,11 @@
       <c r="C67" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3723,8 +3947,11 @@
       <c r="C68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3734,8 +3961,11 @@
       <c r="C69" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3745,8 +3975,11 @@
       <c r="C70" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3756,8 +3989,11 @@
       <c r="C71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3767,8 +4003,11 @@
       <c r="C72" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3778,8 +4017,11 @@
       <c r="C73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3789,8 +4031,11 @@
       <c r="C74" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -3800,8 +4045,11 @@
       <c r="C75" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -3811,8 +4059,11 @@
       <c r="C76" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3822,8 +4073,11 @@
       <c r="C77" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -3833,8 +4087,11 @@
       <c r="C78" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -3844,8 +4101,11 @@
       <c r="C79" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -3855,8 +4115,11 @@
       <c r="C80" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -3866,8 +4129,11 @@
       <c r="C81" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -3877,8 +4143,11 @@
       <c r="C82" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -3888,8 +4157,11 @@
       <c r="C83" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -3899,8 +4171,11 @@
       <c r="C84" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -3910,8 +4185,11 @@
       <c r="C85" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3921,8 +4199,11 @@
       <c r="C86" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -3932,8 +4213,11 @@
       <c r="C87" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -3943,8 +4227,11 @@
       <c r="C88" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -3954,8 +4241,11 @@
       <c r="C89" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3965,8 +4255,11 @@
       <c r="C90" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3976,8 +4269,11 @@
       <c r="C91" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3987,8 +4283,11 @@
       <c r="C92" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3998,8 +4297,11 @@
       <c r="C93" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -4009,8 +4311,11 @@
       <c r="C94" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4020,8 +4325,11 @@
       <c r="C95" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -4031,8 +4339,11 @@
       <c r="C96" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -4042,8 +4353,11 @@
       <c r="C97" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4053,8 +4367,11 @@
       <c r="C98" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -4064,8 +4381,11 @@
       <c r="C99" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -4075,8 +4395,11 @@
       <c r="C100" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -4086,8 +4409,11 @@
       <c r="C101" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -4097,8 +4423,11 @@
       <c r="C102" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -4108,8 +4437,11 @@
       <c r="C103" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -4119,8 +4451,11 @@
       <c r="C104" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -4130,8 +4465,11 @@
       <c r="C105" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -4141,8 +4479,11 @@
       <c r="C106" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -4152,8 +4493,11 @@
       <c r="C107" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -4163,8 +4507,11 @@
       <c r="C108" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -4174,8 +4521,11 @@
       <c r="C109" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -4185,8 +4535,11 @@
       <c r="C110" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -4196,8 +4549,11 @@
       <c r="C111" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -4207,8 +4563,11 @@
       <c r="C112" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -4218,8 +4577,11 @@
       <c r="C113" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4229,8 +4591,11 @@
       <c r="C114" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -4240,8 +4605,11 @@
       <c r="C115" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4251,8 +4619,11 @@
       <c r="C116" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4262,8 +4633,11 @@
       <c r="C117" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -4273,8 +4647,11 @@
       <c r="C118" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4284,8 +4661,11 @@
       <c r="C119" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -4295,8 +4675,11 @@
       <c r="C120" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4306,8 +4689,11 @@
       <c r="C121" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4317,8 +4703,11 @@
       <c r="C122" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4328,8 +4717,11 @@
       <c r="C123" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4339,8 +4731,11 @@
       <c r="C124" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4350,8 +4745,11 @@
       <c r="C125" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4361,8 +4759,11 @@
       <c r="C126" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4372,8 +4773,11 @@
       <c r="C127" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4383,8 +4787,11 @@
       <c r="C128" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4394,8 +4801,11 @@
       <c r="C129" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -4405,8 +4815,11 @@
       <c r="C130" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -4416,8 +4829,11 @@
       <c r="C131" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -4427,8 +4843,11 @@
       <c r="C132" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -4438,8 +4857,11 @@
       <c r="C133" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -4449,8 +4871,11 @@
       <c r="C134" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4460,8 +4885,11 @@
       <c r="C135" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -4471,8 +4899,11 @@
       <c r="C136" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4482,8 +4913,11 @@
       <c r="C137" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4493,8 +4927,11 @@
       <c r="C138" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4504,8 +4941,11 @@
       <c r="C139" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4515,8 +4955,11 @@
       <c r="C140" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4526,8 +4969,11 @@
       <c r="C141" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4537,8 +4983,11 @@
       <c r="C142" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4548,8 +4997,11 @@
       <c r="C143" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4559,8 +5011,11 @@
       <c r="C144" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4570,8 +5025,11 @@
       <c r="C145" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4581,8 +5039,11 @@
       <c r="C146" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4592,8 +5053,11 @@
       <c r="C147" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4603,8 +5067,11 @@
       <c r="C148" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4614,8 +5081,11 @@
       <c r="C149" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4625,8 +5095,11 @@
       <c r="C150" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4636,8 +5109,11 @@
       <c r="C151" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4647,8 +5123,11 @@
       <c r="C152" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4658,8 +5137,11 @@
       <c r="C153" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4669,8 +5151,11 @@
       <c r="C154" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4680,8 +5165,11 @@
       <c r="C155" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4691,8 +5179,11 @@
       <c r="C156" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -4702,8 +5193,11 @@
       <c r="C157" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -4713,8 +5207,11 @@
       <c r="C158" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -4724,8 +5221,11 @@
       <c r="C159" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -4735,8 +5235,11 @@
       <c r="C160" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4746,8 +5249,11 @@
       <c r="C161" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -4757,8 +5263,11 @@
       <c r="C162" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4768,8 +5277,11 @@
       <c r="C163" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -4779,8 +5291,11 @@
       <c r="C164" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -4790,8 +5305,11 @@
       <c r="C165" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -4801,8 +5319,11 @@
       <c r="C166" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -4812,8 +5333,11 @@
       <c r="C167" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -4823,8 +5347,11 @@
       <c r="C168" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -4834,8 +5361,11 @@
       <c r="C169" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -4845,8 +5375,11 @@
       <c r="C170" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -4856,8 +5389,11 @@
       <c r="C171" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -4867,8 +5403,11 @@
       <c r="C172" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -4878,8 +5417,11 @@
       <c r="C173" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -4889,8 +5431,11 @@
       <c r="C174" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -4900,8 +5445,11 @@
       <c r="C175" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -4911,8 +5459,11 @@
       <c r="C176" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -4922,8 +5473,11 @@
       <c r="C177" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -4933,8 +5487,11 @@
       <c r="C178" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -4944,8 +5501,11 @@
       <c r="C179" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -4955,8 +5515,11 @@
       <c r="C180" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -4966,8 +5529,11 @@
       <c r="C181" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -4977,8 +5543,11 @@
       <c r="C182" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -4988,8 +5557,11 @@
       <c r="C183" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -4999,8 +5571,11 @@
       <c r="C184" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5010,8 +5585,11 @@
       <c r="C185" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -5021,8 +5599,11 @@
       <c r="C186" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5032,8 +5613,11 @@
       <c r="C187" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -5043,8 +5627,11 @@
       <c r="C188" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -5054,8 +5641,11 @@
       <c r="C189" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -5065,8 +5655,11 @@
       <c r="C190" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -5076,8 +5669,11 @@
       <c r="C191" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5087,8 +5683,11 @@
       <c r="C192" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5098,8 +5697,11 @@
       <c r="C193" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -5109,8 +5711,11 @@
       <c r="C194" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -5120,8 +5725,11 @@
       <c r="C195" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5131,8 +5739,11 @@
       <c r="C196" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -5142,8 +5753,11 @@
       <c r="C197" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -5153,8 +5767,11 @@
       <c r="C198" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -5164,8 +5781,11 @@
       <c r="C199" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5175,8 +5795,11 @@
       <c r="C200" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5186,8 +5809,11 @@
       <c r="C201" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -5197,8 +5823,11 @@
       <c r="C202" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -5208,8 +5837,11 @@
       <c r="C203" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5219,8 +5851,11 @@
       <c r="C204" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5230,8 +5865,11 @@
       <c r="C205" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -5241,8 +5879,11 @@
       <c r="C206" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5252,8 +5893,11 @@
       <c r="C207" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -5263,8 +5907,11 @@
       <c r="C208" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -5274,8 +5921,11 @@
       <c r="C209" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -5285,8 +5935,11 @@
       <c r="C210" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -5296,8 +5949,11 @@
       <c r="C211" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -5307,8 +5963,11 @@
       <c r="C212" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -5318,8 +5977,11 @@
       <c r="C213" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -5329,8 +5991,11 @@
       <c r="C214" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -5340,8 +6005,11 @@
       <c r="C215" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -5351,8 +6019,11 @@
       <c r="C216" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5362,8 +6033,11 @@
       <c r="C217" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -5373,8 +6047,11 @@
       <c r="C218" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -5384,8 +6061,11 @@
       <c r="C219" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5395,8 +6075,11 @@
       <c r="C220" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -5406,8 +6089,11 @@
       <c r="C221" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5417,8 +6103,11 @@
       <c r="C222" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -5428,8 +6117,11 @@
       <c r="C223" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -5439,8 +6131,11 @@
       <c r="C224" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -5450,8 +6145,11 @@
       <c r="C225" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -5461,8 +6159,11 @@
       <c r="C226" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -5472,8 +6173,11 @@
       <c r="C227" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -5483,8 +6187,11 @@
       <c r="C228" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -5494,8 +6201,11 @@
       <c r="C229" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -5505,8 +6215,11 @@
       <c r="C230" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -5516,8 +6229,11 @@
       <c r="C231" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -5527,8 +6243,11 @@
       <c r="C232" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -5538,8 +6257,11 @@
       <c r="C233" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -5549,8 +6271,11 @@
       <c r="C234" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -5560,8 +6285,11 @@
       <c r="C235" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -5571,8 +6299,11 @@
       <c r="C236" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -5582,8 +6313,11 @@
       <c r="C237" s="5">
         <v>106.3302065</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -5593,8 +6327,11 @@
       <c r="C238" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -5604,8 +6341,11 @@
       <c r="C239" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -5615,8 +6355,11 @@
       <c r="C240" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -5626,8 +6369,11 @@
       <c r="C241" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -5637,8 +6383,11 @@
       <c r="C242" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -5648,8 +6397,11 @@
       <c r="C243" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -5659,8 +6411,11 @@
       <c r="C244" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -5670,8 +6425,11 @@
       <c r="C245" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -5681,8 +6439,11 @@
       <c r="C246" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -5692,8 +6453,11 @@
       <c r="C247" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -5703,8 +6467,11 @@
       <c r="C248" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -5714,8 +6481,11 @@
       <c r="C249" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -5725,8 +6495,11 @@
       <c r="C250" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -5736,8 +6509,11 @@
       <c r="C251" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -5747,8 +6523,11 @@
       <c r="C252" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -5758,8 +6537,11 @@
       <c r="C253" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -5769,8 +6551,11 @@
       <c r="C254" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -5780,8 +6565,11 @@
       <c r="C255" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -5791,8 +6579,11 @@
       <c r="C256" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -5802,8 +6593,11 @@
       <c r="C257" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -5813,8 +6607,11 @@
       <c r="C258" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -5824,8 +6621,11 @@
       <c r="C259" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -5835,8 +6635,11 @@
       <c r="C260" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -5846,8 +6649,11 @@
       <c r="C261" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -5857,8 +6663,11 @@
       <c r="C262" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -5868,8 +6677,11 @@
       <c r="C263" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -5879,8 +6691,11 @@
       <c r="C264" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -5890,8 +6705,11 @@
       <c r="C265" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -5901,8 +6719,11 @@
       <c r="C266" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -5912,8 +6733,11 @@
       <c r="C267" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -5923,8 +6747,11 @@
       <c r="C268" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -5934,8 +6761,11 @@
       <c r="C269" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -5945,8 +6775,11 @@
       <c r="C270" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5956,8 +6789,11 @@
       <c r="C271" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -5967,8 +6803,11 @@
       <c r="C272" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -5978,8 +6817,11 @@
       <c r="C273" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -5989,8 +6831,11 @@
       <c r="C274" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -6000,8 +6845,11 @@
       <c r="C275" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -6011,8 +6859,11 @@
       <c r="C276" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -6022,8 +6873,11 @@
       <c r="C277" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -6033,8 +6887,11 @@
       <c r="C278" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -6044,8 +6901,11 @@
       <c r="C279" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -6055,8 +6915,11 @@
       <c r="C280" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -6066,8 +6929,11 @@
       <c r="C281" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -6077,8 +6943,11 @@
       <c r="C282" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6088,8 +6957,11 @@
       <c r="C283" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6099,8 +6971,11 @@
       <c r="C284" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -6110,8 +6985,11 @@
       <c r="C285" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -6121,8 +6999,11 @@
       <c r="C286" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -6132,8 +7013,11 @@
       <c r="C287" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -6143,8 +7027,11 @@
       <c r="C288" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -6154,8 +7041,11 @@
       <c r="C289" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -6165,8 +7055,11 @@
       <c r="C290" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6176,8 +7069,11 @@
       <c r="C291" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -6187,8 +7083,11 @@
       <c r="C292" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -6198,8 +7097,11 @@
       <c r="C293" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -6209,8 +7111,11 @@
       <c r="C294" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -6220,8 +7125,11 @@
       <c r="C295" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -6231,8 +7139,11 @@
       <c r="C296" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -6242,8 +7153,11 @@
       <c r="C297" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -6253,8 +7167,11 @@
       <c r="C298" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -6264,8 +7181,11 @@
       <c r="C299" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6275,8 +7195,11 @@
       <c r="C300" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -6286,8 +7209,11 @@
       <c r="C301" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -6297,8 +7223,11 @@
       <c r="C302" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -6308,8 +7237,11 @@
       <c r="C303" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -6319,8 +7251,11 @@
       <c r="C304" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -6330,8 +7265,11 @@
       <c r="C305" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -6341,8 +7279,11 @@
       <c r="C306" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -6352,8 +7293,11 @@
       <c r="C307" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -6363,8 +7307,11 @@
       <c r="C308" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -6374,8 +7321,11 @@
       <c r="C309" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -6385,8 +7335,11 @@
       <c r="C310" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -6396,8 +7349,11 @@
       <c r="C311" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -6407,8 +7363,11 @@
       <c r="C312" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -6418,8 +7377,11 @@
       <c r="C313" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -6429,8 +7391,11 @@
       <c r="C314" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -6440,8 +7405,11 @@
       <c r="C315" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -6451,8 +7419,11 @@
       <c r="C316" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -6462,8 +7433,11 @@
       <c r="C317" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -6473,8 +7447,11 @@
       <c r="C318" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -6484,8 +7461,11 @@
       <c r="C319" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -6495,8 +7475,11 @@
       <c r="C320" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -6506,8 +7489,11 @@
       <c r="C321" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -6517,8 +7503,11 @@
       <c r="C322" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -6528,8 +7517,11 @@
       <c r="C323" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D323" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -6539,8 +7531,11 @@
       <c r="C324" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D324" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>6</v>
       </c>
@@ -6550,8 +7545,11 @@
       <c r="C325" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D325" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -6561,8 +7559,11 @@
       <c r="C326" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D326" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -6572,8 +7573,11 @@
       <c r="C327" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D327" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -6583,8 +7587,11 @@
       <c r="C328" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D328" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -6594,8 +7601,11 @@
       <c r="C329" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D329" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -6605,8 +7615,11 @@
       <c r="C330" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D330" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -6616,8 +7629,11 @@
       <c r="C331" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D331" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -6627,8 +7643,11 @@
       <c r="C332" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D332" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -6638,8 +7657,11 @@
       <c r="C333" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D333" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -6649,8 +7671,11 @@
       <c r="C334" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D334" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -6660,8 +7685,11 @@
       <c r="C335" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D335" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -6671,8 +7699,11 @@
       <c r="C336" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -6682,8 +7713,11 @@
       <c r="C337" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>6</v>
       </c>
@@ -6693,8 +7727,11 @@
       <c r="C338" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -6704,8 +7741,11 @@
       <c r="C339" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -6715,8 +7755,11 @@
       <c r="C340" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>6</v>
       </c>
@@ -6726,8 +7769,11 @@
       <c r="C341" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -6737,8 +7783,11 @@
       <c r="C342" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D342" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -6748,8 +7797,11 @@
       <c r="C343" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -6759,8 +7811,11 @@
       <c r="C344" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -6770,8 +7825,11 @@
       <c r="C345" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -6781,8 +7839,11 @@
       <c r="C346" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -6792,8 +7853,11 @@
       <c r="C347" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -6803,8 +7867,11 @@
       <c r="C348" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D348" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -6814,8 +7881,11 @@
       <c r="C349" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D349" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -6825,8 +7895,11 @@
       <c r="C350" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D350" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -6836,8 +7909,11 @@
       <c r="C351" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D351" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -6847,8 +7923,11 @@
       <c r="C352" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>6</v>
       </c>
@@ -6858,8 +7937,11 @@
       <c r="C353" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -6869,8 +7951,11 @@
       <c r="C354" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -6880,8 +7965,11 @@
       <c r="C355" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -6891,8 +7979,11 @@
       <c r="C356" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -6902,8 +7993,11 @@
       <c r="C357" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -6913,8 +8007,11 @@
       <c r="C358" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>6</v>
       </c>
@@ -6924,8 +8021,11 @@
       <c r="C359" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>6</v>
       </c>
@@ -6935,8 +8035,11 @@
       <c r="C360" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -6946,8 +8049,11 @@
       <c r="C361" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -6957,8 +8063,11 @@
       <c r="C362" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -6968,8 +8077,11 @@
       <c r="C363" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -6979,8 +8091,11 @@
       <c r="C364" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>6</v>
       </c>
@@ -6990,8 +8105,11 @@
       <c r="C365" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>6</v>
       </c>
@@ -7001,8 +8119,11 @@
       <c r="C366" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D366" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>6</v>
       </c>
@@ -7012,8 +8133,11 @@
       <c r="C367" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D367" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -7023,8 +8147,11 @@
       <c r="C368" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D368" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -7034,8 +8161,11 @@
       <c r="C369" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D369" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>6</v>
       </c>
@@ -7045,8 +8175,11 @@
       <c r="C370" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D370" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -7056,8 +8189,11 @@
       <c r="C371" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D371" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -7067,8 +8203,11 @@
       <c r="C372" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D372" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -7078,8 +8217,11 @@
       <c r="C373" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D373" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>6</v>
       </c>
@@ -7089,8 +8231,11 @@
       <c r="C374" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D374" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>6</v>
       </c>
@@ -7100,8 +8245,11 @@
       <c r="C375" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D375" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -7111,8 +8259,11 @@
       <c r="C376" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D376" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -7122,8 +8273,11 @@
       <c r="C377" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D377" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -7133,8 +8287,11 @@
       <c r="C378" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D378" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>6</v>
       </c>
@@ -7144,8 +8301,11 @@
       <c r="C379" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D379" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -7155,8 +8315,11 @@
       <c r="C380" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D380" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -7166,8 +8329,11 @@
       <c r="C381" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D381" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>6</v>
       </c>
@@ -7177,8 +8343,11 @@
       <c r="C382" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D382" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>6</v>
       </c>
@@ -7188,8 +8357,11 @@
       <c r="C383" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D383" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>6</v>
       </c>
@@ -7199,8 +8371,11 @@
       <c r="C384" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D384" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -7210,8 +8385,11 @@
       <c r="C385" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D385" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>6</v>
       </c>
@@ -7221,8 +8399,11 @@
       <c r="C386" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D386" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -7232,8 +8413,11 @@
       <c r="C387" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D387" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -7243,8 +8427,11 @@
       <c r="C388" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D388" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>6</v>
       </c>
@@ -7254,8 +8441,11 @@
       <c r="C389" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D389" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>6</v>
       </c>
@@ -7265,8 +8455,11 @@
       <c r="C390" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D390" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -7276,8 +8469,11 @@
       <c r="C391" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D391" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -7287,8 +8483,11 @@
       <c r="C392" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D392" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -7298,8 +8497,11 @@
       <c r="C393" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D393" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -7309,8 +8511,11 @@
       <c r="C394" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D394" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -7320,8 +8525,11 @@
       <c r="C395" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D395" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>6</v>
       </c>
@@ -7331,8 +8539,11 @@
       <c r="C396" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D396" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>6</v>
       </c>
@@ -7342,8 +8553,11 @@
       <c r="C397" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D397" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -7353,8 +8567,11 @@
       <c r="C398" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D398" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>6</v>
       </c>
@@ -7364,8 +8581,11 @@
       <c r="C399" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D399" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>6</v>
       </c>
@@ -7375,8 +8595,11 @@
       <c r="C400" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D400" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>6</v>
       </c>
@@ -7386,8 +8609,11 @@
       <c r="C401" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D401" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -7397,8 +8623,11 @@
       <c r="C402" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D402" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>6</v>
       </c>
@@ -7408,8 +8637,11 @@
       <c r="C403" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D403" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>6</v>
       </c>
@@ -7419,8 +8651,11 @@
       <c r="C404" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D404" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>6</v>
       </c>
@@ -7430,8 +8665,11 @@
       <c r="C405" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D405" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -7441,8 +8679,11 @@
       <c r="C406" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D406" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>6</v>
       </c>
@@ -7452,8 +8693,11 @@
       <c r="C407" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D407" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -7463,8 +8707,11 @@
       <c r="C408" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D408" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -7474,8 +8721,11 @@
       <c r="C409" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D409" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -7485,8 +8735,11 @@
       <c r="C410" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D410" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -7496,8 +8749,11 @@
       <c r="C411" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D411" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -7507,8 +8763,11 @@
       <c r="C412" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D412" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -7518,8 +8777,11 @@
       <c r="C413" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D413" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -7529,8 +8791,11 @@
       <c r="C414" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D414" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -7540,22 +8805,26 @@
       <c r="C415" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>6</v>
-      </c>
-      <c r="B416" t="s">
+      <c r="D415" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="5" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
+      <c r="D416" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D417" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
